--- a/data/3FEB_25_26_j1/players_25_26_3FEB_games.xlsx
+++ b/data/3FEB_25_26_j1/players_25_26_3FEB_games.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD13"/>
+  <dimension ref="A1:AD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,91 +694,91 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BALONCESTO TALAVERA</t>
+          <t>AUTOCARES RODRÍGUEZ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>UROS DE RIVAS</t>
+          <t>CB ARIDANE</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>200</v>
       </c>
       <c r="F3" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>27</v>
+      </c>
+      <c r="K3" t="n">
+        <v>16</v>
+      </c>
+      <c r="L3" t="n">
+        <v>24</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9</v>
+      </c>
+      <c r="N3" t="n">
+        <v>28</v>
+      </c>
+      <c r="O3" t="n">
+        <v>11</v>
+      </c>
+      <c r="P3" t="n">
         <v>5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="Q3" t="n">
+        <v>18</v>
+      </c>
+      <c r="R3" t="n">
         <v>23</v>
       </c>
-      <c r="K3" t="n">
-        <v>20</v>
-      </c>
-      <c r="L3" t="n">
-        <v>25</v>
-      </c>
-      <c r="M3" t="n">
-        <v>10</v>
-      </c>
-      <c r="N3" t="n">
-        <v>26</v>
-      </c>
-      <c r="O3" t="n">
-        <v>9</v>
-      </c>
-      <c r="P3" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>20</v>
-      </c>
-      <c r="R3" t="n">
-        <v>18</v>
-      </c>
       <c r="S3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T3" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U3" t="n">
-        <v>85</v>
+        <v>85.56</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7176470588235294</v>
+        <v>0.783076203833567</v>
       </c>
       <c r="W3" t="n">
-        <v>75</v>
+        <v>76.56</v>
       </c>
       <c r="X3" t="n">
-        <v>81.33333333333333</v>
+        <v>87.51306165099268</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.8260350318471337</v>
+        <v>0.8613700851236319</v>
       </c>
       <c r="Z3" t="n">
-        <v>104.4287871162557</v>
+        <v>109.4232749742533</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.5531914893617021</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.4390243902439024</v>
+        <v>0.4352941176470588</v>
       </c>
       <c r="AD3" t="n">
-        <v>-23.09545378292233</v>
+        <v>-21.91021332326065</v>
       </c>
     </row>
     <row r="4">
@@ -792,91 +792,91 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BALONCESTO TELDE</t>
+          <t>BALONCESTO TALAVERA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ADC BOADILLA</t>
+          <t>UROS DE RIVAS</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>200</v>
       </c>
       <c r="F4" t="n">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="G4" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H4" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I4" t="n">
         <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K4" t="n">
         <v>20</v>
       </c>
       <c r="L4" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N4" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="O4" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P4" t="n">
         <v>8</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="S4" t="n">
         <v>21</v>
       </c>
       <c r="T4" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U4" t="n">
-        <v>96.2</v>
+        <v>85</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8627858627858628</v>
+        <v>0.7176470588235294</v>
       </c>
       <c r="W4" t="n">
-        <v>84.2</v>
+        <v>75</v>
       </c>
       <c r="X4" t="n">
-        <v>98.57482185273159</v>
+        <v>81.33333333333333</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.010687732342007</v>
+        <v>0.8260350318471337</v>
       </c>
       <c r="Z4" t="n">
-        <v>108.6413586413587</v>
+        <v>104.4287871162557</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.76</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.492063492063492</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="AD4" t="n">
-        <v>-10.06653678862706</v>
+        <v>-23.09545378292233</v>
       </c>
     </row>
     <row r="5">
@@ -890,91 +890,91 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
+          <t>BALONCESTO TELDE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>REAL CANOE N.C.</t>
+          <t>ADC BOADILLA</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>200</v>
       </c>
       <c r="F5" t="n">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G5" t="n">
+        <v>24</v>
+      </c>
+      <c r="H5" t="n">
+        <v>43</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>25</v>
+      </c>
+      <c r="K5" t="n">
+        <v>20</v>
+      </c>
+      <c r="L5" t="n">
+        <v>30</v>
+      </c>
+      <c r="M5" t="n">
+        <v>12</v>
+      </c>
+      <c r="N5" t="n">
+        <v>19</v>
+      </c>
+      <c r="O5" t="n">
         <v>17</v>
       </c>
-      <c r="H5" t="n">
-        <v>41</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>32</v>
-      </c>
-      <c r="K5" t="n">
-        <v>13</v>
-      </c>
-      <c r="L5" t="n">
-        <v>17</v>
-      </c>
-      <c r="M5" t="n">
-        <v>18</v>
-      </c>
-      <c r="N5" t="n">
-        <v>18</v>
-      </c>
-      <c r="O5" t="n">
-        <v>12</v>
-      </c>
       <c r="P5" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="R5" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="S5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="T5" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="U5" t="n">
-        <v>91.48</v>
+        <v>96.2</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8089199825098382</v>
+        <v>0.8627858627858628</v>
       </c>
       <c r="W5" t="n">
-        <v>73.48</v>
+        <v>84.2</v>
       </c>
       <c r="X5" t="n">
-        <v>100.707675557975</v>
+        <v>98.57482185273159</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.9237044145873321</v>
+        <v>1.010687732342007</v>
       </c>
       <c r="Z5" t="n">
-        <v>102.176220806794</v>
+        <v>108.6413586413587</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.4</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.76</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.5070422535211268</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="AD5" t="n">
-        <v>-1.468545248819098</v>
+        <v>-10.06653678862706</v>
       </c>
     </row>
     <row r="6">
@@ -988,91 +988,91 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C.B. TRES CANTOS</t>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>RECUCYM BAZU</t>
+          <t>REAL CANOE N.C.</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>200</v>
       </c>
       <c r="F6" t="n">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G6" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H6" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K6" t="n">
+        <v>13</v>
+      </c>
+      <c r="L6" t="n">
+        <v>17</v>
+      </c>
+      <c r="M6" t="n">
+        <v>18</v>
+      </c>
+      <c r="N6" t="n">
+        <v>18</v>
+      </c>
+      <c r="O6" t="n">
         <v>12</v>
       </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>11</v>
+      </c>
+      <c r="R6" t="n">
         <v>16</v>
       </c>
-      <c r="M6" t="n">
-        <v>13</v>
-      </c>
-      <c r="N6" t="n">
-        <v>26</v>
-      </c>
-      <c r="O6" t="n">
-        <v>15</v>
-      </c>
-      <c r="P6" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>12</v>
-      </c>
-      <c r="R6" t="n">
-        <v>18</v>
-      </c>
       <c r="S6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T6" t="n">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="U6" t="n">
-        <v>89.03999999999999</v>
+        <v>91.48</v>
       </c>
       <c r="V6" t="n">
-        <v>0.9546271338724169</v>
+        <v>0.8089199825098382</v>
       </c>
       <c r="W6" t="n">
-        <v>76.03999999999999</v>
+        <v>73.48</v>
       </c>
       <c r="X6" t="n">
-        <v>111.7832719621252</v>
+        <v>100.707675557975</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.4536993950674732</v>
+        <v>0.9237044145873321</v>
       </c>
       <c r="Z6" t="n">
-        <v>52.73120605732828</v>
+        <v>102.176220806794</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.40625</v>
+        <v>0.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.5571428571428572</v>
+        <v>0.5070422535211268</v>
       </c>
       <c r="AD6" t="n">
-        <v>59.05206590479693</v>
+        <v>-1.468545248819098</v>
       </c>
     </row>
     <row r="7">
@@ -1086,19 +1086,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EB FELIPE ANTÓN</t>
+          <t>C.B. TRES CANTOS</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ZENTRO BASKET MADRID</t>
+          <t>RECUCYM BAZU</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>200</v>
       </c>
       <c r="F7" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G7" t="n">
         <v>26</v>
@@ -1107,70 +1107,70 @@
         <v>45</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L7" t="n">
+        <v>16</v>
+      </c>
+      <c r="M7" t="n">
+        <v>13</v>
+      </c>
+      <c r="N7" t="n">
         <v>26</v>
       </c>
-      <c r="M7" t="n">
-        <v>9</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
+        <v>15</v>
+      </c>
+      <c r="P7" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>12</v>
+      </c>
+      <c r="R7" t="n">
         <v>18</v>
       </c>
-      <c r="O7" t="n">
-        <v>11</v>
-      </c>
-      <c r="P7" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R7" t="n">
-        <v>20</v>
-      </c>
       <c r="S7" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="T7" t="n">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="U7" t="n">
-        <v>93.44</v>
+        <v>89.03999999999999</v>
       </c>
       <c r="V7" t="n">
-        <v>0.9738869863013699</v>
+        <v>0.9546271338724169</v>
       </c>
       <c r="W7" t="n">
-        <v>84.44</v>
+        <v>76.03999999999999</v>
       </c>
       <c r="X7" t="n">
-        <v>107.7688299384178</v>
+        <v>111.7832719621252</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.061224489795918</v>
+        <v>0.4536993950674732</v>
       </c>
       <c r="Z7" t="n">
-        <v>125.3012048192771</v>
+        <v>52.73120605732828</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.25</v>
+        <v>0.40625</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.391304347826087</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="AD7" t="n">
-        <v>-17.53237488085929</v>
+        <v>59.05206590479693</v>
       </c>
     </row>
     <row r="8">
@@ -1184,91 +1184,91 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GRUPO EGIDO PINTOBASKET</t>
+          <t>CB ARIDANE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LUJISA GUADALAJARA BASKET</t>
+          <t>AUTOCARES RODRÍGUEZ</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>200</v>
       </c>
       <c r="F8" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H8" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K8" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L8" t="n">
         <v>22</v>
       </c>
       <c r="M8" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N8" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O8" t="n">
         <v>15</v>
       </c>
       <c r="P8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q8" t="n">
         <v>12</v>
       </c>
       <c r="R8" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="S8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T8" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="U8" t="n">
-        <v>91.68000000000001</v>
+        <v>98.68000000000001</v>
       </c>
       <c r="V8" t="n">
-        <v>0.8398778359511343</v>
+        <v>0.8613700851236319</v>
       </c>
       <c r="W8" t="n">
-        <v>78.68000000000001</v>
+        <v>77.68000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>97.86476868327401</v>
+        <v>109.4232749742533</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.9088964927288281</v>
+        <v>0.783076203833567</v>
       </c>
       <c r="Z8" t="n">
-        <v>104.2688910696762</v>
+        <v>87.51306165099268</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.75</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.5647058823529412</v>
       </c>
       <c r="AD8" t="n">
-        <v>-6.40412238640215</v>
+        <v>21.91021332326065</v>
       </c>
     </row>
     <row r="9">
@@ -1282,91 +1282,91 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LUJISA GUADALAJARA BASKET</t>
+          <t>EB FELIPE ANTÓN</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>GRUPO EGIDO PINTOBASKET</t>
+          <t>ZENTRO BASKET MADRID</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>200</v>
       </c>
       <c r="F9" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G9" t="n">
+        <v>26</v>
+      </c>
+      <c r="H9" t="n">
+        <v>45</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>27</v>
+      </c>
+      <c r="K9" t="n">
+        <v>21</v>
+      </c>
+      <c r="L9" t="n">
+        <v>26</v>
+      </c>
+      <c r="M9" t="n">
+        <v>9</v>
+      </c>
+      <c r="N9" t="n">
+        <v>18</v>
+      </c>
+      <c r="O9" t="n">
+        <v>11</v>
+      </c>
+      <c r="P9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>10</v>
+      </c>
+      <c r="R9" t="n">
         <v>20</v>
       </c>
-      <c r="H9" t="n">
-        <v>41</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>19</v>
-      </c>
-      <c r="K9" t="n">
-        <v>24</v>
-      </c>
-      <c r="L9" t="n">
-        <v>33</v>
-      </c>
-      <c r="M9" t="n">
-        <v>12</v>
-      </c>
-      <c r="N9" t="n">
-        <v>26</v>
-      </c>
-      <c r="O9" t="n">
-        <v>14</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>19</v>
-      </c>
-      <c r="R9" t="n">
-        <v>24</v>
-      </c>
       <c r="S9" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="T9" t="n">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="U9" t="n">
-        <v>93.52</v>
+        <v>93.44</v>
       </c>
       <c r="V9" t="n">
-        <v>0.9088964927288281</v>
+        <v>0.9738869863013699</v>
       </c>
       <c r="W9" t="n">
-        <v>81.52</v>
+        <v>84.44</v>
       </c>
       <c r="X9" t="n">
-        <v>104.2688910696762</v>
+        <v>107.7688299384178</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.8398778359511343</v>
+        <v>1.061224489795918</v>
       </c>
       <c r="Z9" t="n">
-        <v>97.86476868327401</v>
+        <v>125.3012048192771</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.25</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.40412238640215</v>
+        <v>-17.53237488085929</v>
       </c>
     </row>
     <row r="10">
@@ -1380,12 +1380,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>REAL CANOE N.C.</t>
+          <t>GRUPO EGIDO PINTOBASKET</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
+          <t>LUJISA GUADALAJARA BASKET</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -1395,76 +1395,76 @@
         <v>77</v>
       </c>
       <c r="G10" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H10" t="n">
+        <v>37</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>33</v>
+      </c>
+      <c r="K10" t="n">
+        <v>12</v>
+      </c>
+      <c r="L10" t="n">
+        <v>22</v>
+      </c>
+      <c r="M10" t="n">
+        <v>13</v>
+      </c>
+      <c r="N10" t="n">
+        <v>21</v>
+      </c>
+      <c r="O10" t="n">
+        <v>15</v>
+      </c>
+      <c r="P10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>12</v>
+      </c>
+      <c r="R10" t="n">
         <v>29</v>
       </c>
-      <c r="I10" t="n">
-        <v>10</v>
-      </c>
-      <c r="J10" t="n">
-        <v>26</v>
-      </c>
-      <c r="K10" t="n">
-        <v>13</v>
-      </c>
-      <c r="L10" t="n">
-        <v>19</v>
-      </c>
-      <c r="M10" t="n">
-        <v>8</v>
-      </c>
-      <c r="N10" t="n">
-        <v>27</v>
-      </c>
-      <c r="O10" t="n">
-        <v>12</v>
-      </c>
-      <c r="P10" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>20</v>
-      </c>
-      <c r="R10" t="n">
-        <v>19</v>
-      </c>
       <c r="S10" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="T10" t="n">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="U10" t="n">
-        <v>83.36</v>
+        <v>91.68000000000001</v>
       </c>
       <c r="V10" t="n">
-        <v>0.9237044145873321</v>
+        <v>0.8398778359511343</v>
       </c>
       <c r="W10" t="n">
-        <v>75.36</v>
+        <v>78.68000000000001</v>
       </c>
       <c r="X10" t="n">
-        <v>102.176220806794</v>
+        <v>97.86476868327401</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.8089199825098382</v>
+        <v>0.9088964927288281</v>
       </c>
       <c r="Z10" t="n">
-        <v>100.707675557975</v>
+        <v>104.2688910696762</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.6</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.4929577464788732</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.468545248819098</v>
+        <v>-6.40412238640215</v>
       </c>
     </row>
     <row r="11">
@@ -1478,91 +1478,91 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RECUCYM BAZU</t>
+          <t>LUJISA GUADALAJARA BASKET</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>C.B. TRES CANTOS</t>
+          <t>GRUPO EGIDO PINTOBASKET</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>200</v>
       </c>
       <c r="F11" t="n">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="G11" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H11" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="L11" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M11" t="n">
         <v>12</v>
       </c>
       <c r="N11" t="n">
+        <v>26</v>
+      </c>
+      <c r="O11" t="n">
+        <v>14</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
         <v>19</v>
       </c>
-      <c r="O11" t="n">
-        <v>3</v>
-      </c>
-      <c r="P11" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>22</v>
-      </c>
       <c r="R11" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="S11" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="T11" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="U11" t="n">
-        <v>85.96000000000001</v>
+        <v>93.52</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4536993950674732</v>
+        <v>0.9088964927288281</v>
       </c>
       <c r="W11" t="n">
-        <v>73.96000000000001</v>
+        <v>81.52</v>
       </c>
       <c r="X11" t="n">
-        <v>52.73120605732828</v>
+        <v>104.2688910696762</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.9546271338724169</v>
+        <v>0.8398778359511343</v>
       </c>
       <c r="Z11" t="n">
-        <v>111.7832719621252</v>
+        <v>97.86476868327401</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.59375</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.4428571428571428</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="AD11" t="n">
-        <v>-59.05206590479693</v>
+        <v>6.40412238640215</v>
       </c>
     </row>
     <row r="12">
@@ -1576,91 +1576,91 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>UROS DE RIVAS</t>
+          <t>REAL CANOE N.C.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BALONCESTO TALAVERA</t>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>200</v>
       </c>
       <c r="F12" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H12" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I12" t="n">
         <v>10</v>
       </c>
       <c r="J12" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M12" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="N12" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P12" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="Q12" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="R12" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T12" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="U12" t="n">
-        <v>100.48</v>
+        <v>83.36</v>
       </c>
       <c r="V12" t="n">
-        <v>0.8260350318471337</v>
+        <v>0.9237044145873321</v>
       </c>
       <c r="W12" t="n">
-        <v>79.48</v>
+        <v>75.36</v>
       </c>
       <c r="X12" t="n">
-        <v>104.4287871162557</v>
+        <v>102.176220806794</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.7176470588235294</v>
+        <v>0.8089199825098382</v>
       </c>
       <c r="Z12" t="n">
-        <v>81.33333333333333</v>
+        <v>100.707675557975</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.4468085106382979</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.5609756097560976</v>
+        <v>0.4929577464788732</v>
       </c>
       <c r="AD12" t="n">
-        <v>23.09545378292233</v>
+        <v>1.468545248819098</v>
       </c>
     </row>
     <row r="13">
@@ -1674,90 +1674,286 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ZENTRO BASKET MADRID</t>
+          <t>RECUCYM BAZU</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>EB FELIPE ANTÓN</t>
+          <t>C.B. TRES CANTOS</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>200</v>
       </c>
       <c r="F13" t="n">
+        <v>39</v>
+      </c>
+      <c r="G13" t="n">
+        <v>16</v>
+      </c>
+      <c r="H13" t="n">
+        <v>47</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>13</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>9</v>
+      </c>
+      <c r="M13" t="n">
+        <v>12</v>
+      </c>
+      <c r="N13" t="n">
+        <v>19</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3</v>
+      </c>
+      <c r="P13" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>22</v>
+      </c>
+      <c r="R13" t="n">
+        <v>16</v>
+      </c>
+      <c r="S13" t="n">
+        <v>18</v>
+      </c>
+      <c r="T13" t="n">
+        <v>85</v>
+      </c>
+      <c r="U13" t="n">
+        <v>85.96000000000001</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.4536993950674732</v>
+      </c>
+      <c r="W13" t="n">
+        <v>73.96000000000001</v>
+      </c>
+      <c r="X13" t="n">
+        <v>52.73120605732828</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.9546271338724169</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>111.7832719621252</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.4428571428571428</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-59.05206590479693</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>UROS DE RIVAS</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>BALONCESTO TALAVERA</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>200</v>
+      </c>
+      <c r="F14" t="n">
+        <v>83</v>
+      </c>
+      <c r="G14" t="n">
+        <v>21</v>
+      </c>
+      <c r="H14" t="n">
+        <v>42</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10</v>
+      </c>
+      <c r="J14" t="n">
+        <v>37</v>
+      </c>
+      <c r="K14" t="n">
+        <v>11</v>
+      </c>
+      <c r="L14" t="n">
+        <v>17</v>
+      </c>
+      <c r="M14" t="n">
+        <v>21</v>
+      </c>
+      <c r="N14" t="n">
+        <v>25</v>
+      </c>
+      <c r="O14" t="n">
+        <v>13</v>
+      </c>
+      <c r="P14" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>14</v>
+      </c>
+      <c r="R14" t="n">
+        <v>22</v>
+      </c>
+      <c r="S14" t="n">
+        <v>18</v>
+      </c>
+      <c r="T14" t="n">
+        <v>61</v>
+      </c>
+      <c r="U14" t="n">
+        <v>100.48</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.8260350318471337</v>
+      </c>
+      <c r="W14" t="n">
+        <v>79.48</v>
+      </c>
+      <c r="X14" t="n">
+        <v>104.4287871162557</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.7176470588235294</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>81.33333333333333</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.4468085106382979</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.5609756097560976</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>23.09545378292233</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ZENTRO BASKET MADRID</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>200</v>
+      </c>
+      <c r="F15" t="n">
         <v>104</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G15" t="n">
         <v>33</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H15" t="n">
         <v>48</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I15" t="n">
         <v>7</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J15" t="n">
         <v>24</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K15" t="n">
         <v>17</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L15" t="n">
         <v>25</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M15" t="n">
         <v>15</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N15" t="n">
         <v>27</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O15" t="n">
         <v>15</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P15" t="n">
         <v>3</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q15" t="n">
         <v>15</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R15" t="n">
         <v>23</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S15" t="n">
         <v>20</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T15" t="n">
         <v>91</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U15" t="n">
         <v>98</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V15" t="n">
         <v>1.061224489795918</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W15" t="n">
         <v>83</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X15" t="n">
         <v>125.3012048192771</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y15" t="n">
         <v>0.9738869863013699</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z15" t="n">
         <v>107.7688299384178</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA15" t="n">
         <v>0.4545454545454545</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB15" t="n">
         <v>0.75</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC15" t="n">
         <v>0.6086956521739131</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD15" t="n">
         <v>17.53237488085929</v>
       </c>
     </row>
